--- a/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori1/42/correct_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori1/42/correct_predictions_42.xlsx
@@ -641,7 +641,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1577,21 +1577,21 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles . Fly with caution .</t>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles</t>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0-12</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1616,12 +1616,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>14-16</t>
+          <t>0-12</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1631,27 +1631,27 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles . Fly with caution .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Then tap Go</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>11-13</t>
+          <t>14-16</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1676,12 +1676,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen</t>
+          <t>Then tap Go</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>11-13</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori1/42/correct_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori1/42/correct_predictions_42.xlsx
@@ -641,7 +641,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1577,21 +1577,21 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles . Fly with caution .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>0-12</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1616,12 +1616,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0-12</t>
+          <t>14-16</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1631,27 +1631,27 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles . Fly with caution .</t>
+          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Then tap Go</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>14-16</t>
+          <t>11-13</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1676,12 +1676,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Then tap Go</t>
+          <t>Drag a box around or tap a target on screen</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>11-13</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
